--- a/project_plan/it-402-initial_plan.xlsx
+++ b/project_plan/it-402-initial_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Dropbox/sta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C5370C-6784-3943-AA65-8811C3BC6D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB0D0C5-A632-8647-A66E-153FE443F8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2040" windowWidth="28040" windowHeight="16320" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
+    <workbookView xWindow="240" yWindow="1240" windowWidth="30900" windowHeight="16320" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -429,11 +429,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,6 +488,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,17 +807,17 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="105.1640625" customWidth="1"/>
+    <col min="3" max="3" width="107" customWidth="1"/>
     <col min="4" max="4" width="1.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.1640625" customWidth="1"/>
@@ -937,8 +949,8 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -957,9 +969,10 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -995,7 +1008,7 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
@@ -1091,7 +1104,7 @@
       <c r="E25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -1173,13 +1186,14 @@
       <c r="C34" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="K34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1"/>
-      <c r="N35" s="14"/>
-      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>

--- a/project_plan/it-402-initial_plan.xlsx
+++ b/project_plan/it-402-initial_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Dropbox/sta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB0D0C5-A632-8647-A66E-153FE443F8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777AA91F-84AB-2749-9AD3-69C81E52B2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1240" windowWidth="30900" windowHeight="16320" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
+    <workbookView xWindow="1360" yWindow="1420" windowWidth="27140" windowHeight="18740" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>Task Id</t>
   </si>
@@ -349,6 +349,24 @@
   </si>
   <si>
     <t>6-1</t>
+  </si>
+  <si>
+    <t>Blaga Baycheva</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>  - use text analysis to track variation in subjects over time</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>may go up to 10</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -421,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -429,22 +447,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,7 +495,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,13 +825,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A621E4C-8382-844C-97FA-6DE0337901F0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,8 +925,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="H4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -917,7 +946,16 @@
       <c r="E5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -929,9 +967,25 @@
       <c r="E6" s="17" t="s">
         <v>86</v>
       </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -941,6 +995,14 @@
         <v>9</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -949,9 +1011,24 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -960,7 +1037,16 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -969,15 +1055,37 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="G11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -987,6 +1095,14 @@
         <v>14</v>
       </c>
       <c r="C13" s="1"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -998,8 +1114,14 @@
       <c r="E14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1008,11 +1130,33 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>36</v>
@@ -1023,277 +1167,429 @@
       <c r="E17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="C24" s="1"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="C28" s="1"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>6</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N33" s="14"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="P34" s="14"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="1"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
       <c r="B36" s="6"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
+        <v>8</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>9</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>10</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>11</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>12</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>50</v>
-      </c>
+    <row r="46" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
+        <v>13</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>14</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+    <row r="50" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>15</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1309,7 +1605,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,10 +1686,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B78B07E-43A3-2E4E-A901-E60800BAB4BC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,6 +1761,20 @@
         <v>101</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_plan/it-402-initial_plan.xlsx
+++ b/project_plan/it-402-initial_plan.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Dropbox/sta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Documents/sta-it402-dresscode-main/project_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777AA91F-84AB-2749-9AD3-69C81E52B2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB32A60-1AC7-6548-89D0-DBD4C51C2F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1420" windowWidth="27140" windowHeight="18740" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
+    <workbookView xWindow="340" yWindow="1200" windowWidth="31180" windowHeight="17800" activeTab="2" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
-    <sheet name="deliverables" sheetId="3" r:id="rId2"/>
-    <sheet name="task_owners" sheetId="2" r:id="rId3"/>
+    <sheet name="plan_ph2" sheetId="4" r:id="rId2"/>
+    <sheet name="deliverables" sheetId="3" r:id="rId3"/>
+    <sheet name="task_owners" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
   <si>
     <t>Task Id</t>
   </si>
@@ -367,13 +368,118 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>  - document key changes in data/awards/reporting</t>
+  </si>
+  <si>
+    <t>SQA/Toni</t>
+  </si>
+  <si>
+    <t>Stage 2 reporting</t>
+  </si>
+  <si>
+    <t>  - finalisation of visualisation techniques</t>
+  </si>
+  <si>
+    <t>Toni/All</t>
+  </si>
+  <si>
+    <t>Requirements review &amp; Construction of UI</t>
+  </si>
+  <si>
+    <t>  - update to scenario-based UI design &amp; storyline</t>
+  </si>
+  <si>
+    <t>  - confirmation of UI for MVP / first working prototype</t>
+  </si>
+  <si>
+    <t>  - cross-platform compatibility &amp; visual impairments (key - colour-blindness)</t>
+  </si>
+  <si>
+    <t>  - functionality for download - data subsets and charts</t>
+  </si>
+  <si>
+    <t>  - usability evaluation</t>
+  </si>
+  <si>
+    <t>  - internal system testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment - 1st working Prototype </t>
+  </si>
+  <si>
+    <t>PH3</t>
+  </si>
+  <si>
+    <t>  - implement feedback from Ph1 review meeting</t>
+  </si>
+  <si>
+    <t>  - define additional indicators and metrics to be implemented</t>
+  </si>
+  <si>
+    <t>  - use text analysis to create subject groups</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EM/ASD</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>12-1</t>
+  </si>
+  <si>
+    <t>Eleanor Mitchell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +530,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -451,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -510,6 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,18 +942,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="107" customWidth="1"/>
+    <col min="3" max="3" width="106" customWidth="1"/>
     <col min="4" max="4" width="1.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.1640625" customWidth="1"/>
@@ -1600,11 +1715,629 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37260D8A-A60E-C040-84A5-7E6382A022F2}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="106" customWidth="1"/>
+    <col min="4" max="4" width="1.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.1640625" customWidth="1"/>
+    <col min="15" max="15" width="1.5" customWidth="1"/>
+    <col min="24" max="24" width="1.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="E1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>12</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>15</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>16</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F57C1C8-9A34-4540-8CE1-70B0552E9C13}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1683,13 +2416,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B78B07E-43A3-2E4E-A901-E60800BAB4BC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1739,25 +2472,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1773,6 +2506,14 @@
       </c>
       <c r="F6" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/project_plan/it-402-initial_plan.xlsx
+++ b/project_plan/it-402-initial_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Documents/sta-it402-dresscode-main/project_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB32A60-1AC7-6548-89D0-DBD4C51C2F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C4BE3-2ED4-0842-A50A-79705157C5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1200" windowWidth="31180" windowHeight="17800" activeTab="2" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
+    <workbookView xWindow="340" yWindow="1200" windowWidth="31180" windowHeight="17800" activeTab="1" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="152">
   <si>
     <t>Task Id</t>
   </si>
@@ -382,9 +382,6 @@
     <t>  - finalisation of visualisation techniques</t>
   </si>
   <si>
-    <t>Toni/All</t>
-  </si>
-  <si>
     <t>Requirements review &amp; Construction of UI</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
     <t>EM</t>
   </si>
   <si>
-    <t>EM/ASD</t>
-  </si>
-  <si>
     <t>7-1</t>
   </si>
   <si>
@@ -473,6 +467,33 @@
   </si>
   <si>
     <t>Eleanor Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>  - analysis of grades and ggrade boundaries</t>
+  </si>
+  <si>
+    <t>Week 2-1 - 3rd Jan</t>
+  </si>
+  <si>
+    <t>Working site deployed publicly 7th Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>EM/BB/ASD</t>
+  </si>
+  <si>
+    <t>TS/All</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>  - delivery of MVP</t>
   </si>
 </sst>
 </file>
@@ -553,10 +574,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -565,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -625,6 +670,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1716,13 +1763,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37260D8A-A60E-C040-84A5-7E6382A022F2}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1796,15 +1843,17 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -1814,25 +1863,24 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1840,18 +1888,20 @@
       <c r="E7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="H7" s="20"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="21"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1911,7 +1961,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>110</v>
@@ -1927,10 +1977,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>86</v>
@@ -1939,12 +1989,12 @@
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -1963,10 +2013,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>105</v>
@@ -1974,23 +2024,33 @@
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="19"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="1"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -1998,13 +2058,10 @@
       <c r="K17" s="21"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>115</v>
-      </c>
+    <row r="18" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -2013,107 +2070,105 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>128</v>
+      <c r="A19" s="4">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="L21" s="21"/>
       <c r="M21" s="22"/>
       <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="21"/>
-      <c r="L22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="22"/>
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="K23" s="22"/>
       <c r="L23" s="22"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="22"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -2124,90 +2179,89 @@
       <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-    </row>
-    <row r="28" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>11</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+    </row>
+    <row r="29" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>86</v>
+      <c r="A30" s="4">
+        <v>11</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>120</v>
@@ -2224,29 +2278,31 @@
       <c r="N31" s="20"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>12</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>122</v>
-      </c>
+    </row>
+    <row r="34" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -2254,76 +2310,114 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>87</v>
+      <c r="A35" s="4">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="20"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N37" s="20"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>13</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
+        <v>14</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>15</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+    <row r="44" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>16</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2431,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2510,10 +2604,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/project_plan/it-402-initial_plan.xlsx
+++ b/project_plan/it-402-initial_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Documents/sta-it402-dresscode-main/project_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C4BE3-2ED4-0842-A50A-79705157C5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3CDB7A-B48C-0043-8979-A8BC45A699C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1200" windowWidth="31180" windowHeight="17800" activeTab="1" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
+    <workbookView xWindow="1300" yWindow="1340" windowWidth="31180" windowHeight="17800" activeTab="1" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
   <si>
     <t>Task Id</t>
   </si>
@@ -439,12 +439,6 @@
     <t>8-2</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
     <t>9-1</t>
   </si>
   <si>
@@ -494,6 +488,30 @@
   </si>
   <si>
     <t>  - delivery of MVP</t>
+  </si>
+  <si>
+    <t>Data Extraction - HNCs &amp; HNDS, etc.</t>
+  </si>
+  <si>
+    <t>  - extract from Excel sheets</t>
+  </si>
+  <si>
+    <t>  - run error checking and load into DB</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>13-1</t>
+  </si>
+  <si>
+    <t>13-2</t>
   </si>
 </sst>
 </file>
@@ -1763,13 +1781,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37260D8A-A60E-C040-84A5-7E6382A022F2}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1852,7 +1870,7 @@
         <v>87</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -1889,7 +1907,7 @@
         <v>85</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="21"/>
@@ -1947,7 +1965,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1"/>
       <c r="G11" s="21"/>
@@ -1964,351 +1982,352 @@
         <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+        <v>146</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="L13" s="20"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="19"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="19"/>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>110</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="1"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="26"/>
+      <c r="A19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="19"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="19"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>149</v>
+      <c r="A24" s="4">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="26"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>10</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="19"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
       <c r="L28" s="22"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-    </row>
-    <row r="29" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="22"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>11</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+    </row>
+    <row r="30" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="A31" s="2">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="A33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
     </row>
     <row r="34" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
@@ -2317,7 +2336,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -2326,98 +2345,167 @@
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="6"/>
+        <v>139</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="6"/>
+        <v>148</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="20"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N42" s="20"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>13</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="45" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>14</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>15</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>15</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>16</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>16</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    <row r="49" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>17</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
-        <v>146</v>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2695,7 @@
         <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/project_plan/it-402-initial_plan.xlsx
+++ b/project_plan/it-402-initial_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Documents/sta-it402-dresscode-main/project_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3CDB7A-B48C-0043-8979-A8BC45A699C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CF9D8E-B3BF-954B-ADB5-F65E7BCCA9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1340" windowWidth="31180" windowHeight="17800" activeTab="1" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
+    <workbookView xWindow="620" yWindow="1340" windowWidth="31180" windowHeight="17800" activeTab="1" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
   <si>
     <t>Task Id</t>
   </si>
@@ -490,9 +490,6 @@
     <t>  - delivery of MVP</t>
   </si>
   <si>
-    <t>Data Extraction - HNCs &amp; HNDS, etc.</t>
-  </si>
-  <si>
     <t>  - extract from Excel sheets</t>
   </si>
   <si>
@@ -512,6 +509,15 @@
   </si>
   <si>
     <t>13-2</t>
+  </si>
+  <si>
+    <t>Data Extraction - HNCs &amp; HNDS; teacher data, etc.</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>  - update data structure and flow diagram</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -690,6 +702,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1781,13 +1796,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37260D8A-A60E-C040-84A5-7E6382A022F2}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="113" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1965,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1"/>
       <c r="G11" s="21"/>
@@ -1982,61 +1997,59 @@
         <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>146</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>146</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
       <c r="C15" s="1"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="16" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -2048,81 +2061,80 @@
       <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>111</v>
-      </c>
+      <c r="A17" s="2">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="L18" s="20"/>
-      <c r="N18" s="25"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="21"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="N19" s="25"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="19"/>
-      <c r="N20" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>105</v>
@@ -2135,21 +2147,28 @@
       <c r="L21" s="19"/>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="C22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="19"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="1"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -2157,123 +2176,117 @@
       <c r="K23" s="21"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>114</v>
-      </c>
+    <row r="24" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>146</v>
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="K27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="L27" s="21"/>
       <c r="M27" s="22"/>
       <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="22"/>
       <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="K29" s="22"/>
       <c r="L29" s="22"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="22"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>11</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -2284,93 +2297,92 @@
       <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="A32" s="2">
+        <v>11</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="20"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="19"/>
       <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>12</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>86</v>
+      <c r="A36" s="4">
+        <v>12</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>86</v>
@@ -2384,29 +2396,31 @@
       <c r="N37" s="20"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
-    </row>
-    <row r="39" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>13</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>121</v>
-      </c>
+    </row>
+    <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2414,97 +2428,113 @@
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>87</v>
+      <c r="A41" s="4">
+        <v>13</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
-      <c r="N41" s="20"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="20"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N42" s="20"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="1"/>
+      <c r="N43" s="27"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>14</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>50</v>
-      </c>
+    <row r="46" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
+        <v>15</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>16</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+    <row r="50" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>17</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
         <v>144</v>
       </c>
     </row>

--- a/project_plan/it-402-initial_plan.xlsx
+++ b/project_plan/it-402-initial_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Documents/sta-it402-dresscode-main/project_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CF9D8E-B3BF-954B-ADB5-F65E7BCCA9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0561B8-8C69-EF44-B2EC-70301F91521D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="1340" windowWidth="31180" windowHeight="17800" activeTab="1" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="163">
   <si>
     <t>Task Id</t>
   </si>
@@ -475,9 +475,6 @@
     <t>Working site deployed publicly 7th Mar</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>EM/BB/ASD</t>
   </si>
   <si>
@@ -518,13 +515,25 @@
   </si>
   <si>
     <t>  - update data structure and flow diagram</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ali Kanji</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>EM/AK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -579,6 +588,13 @@
       <strike/>
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -640,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -703,6 +719,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1802,7 +1821,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1885,7 +1904,7 @@
         <v>87</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -1904,7 +1923,9 @@
       <c r="E6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="H6" s="20"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -1921,9 +1942,7 @@
       <c r="E7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="20"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -1942,7 +1961,9 @@
       <c r="E8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="H8" s="20"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -1980,7 +2001,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1"/>
       <c r="G11" s="21"/>
@@ -1997,12 +2018,14 @@
         <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -2012,28 +2035,32 @@
         <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E14" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="20"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
     </row>
@@ -2149,7 +2176,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>142</v>
@@ -2210,7 +2237,7 @@
         <v>115</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="22"/>
@@ -2227,7 +2254,7 @@
         <v>113</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="22"/>
@@ -2239,7 +2266,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>117</v>
@@ -2257,7 +2284,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>118</v>
@@ -2277,7 +2304,7 @@
         <v>116</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -2397,7 +2424,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>119</v>
@@ -2447,7 +2474,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -2467,11 +2494,11 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N43" s="27"/>
     </row>
@@ -2631,7 +2658,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B78B07E-43A3-2E4E-A901-E60800BAB4BC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -2728,6 +2755,14 @@
         <v>140</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_plan/it-402-initial_plan.xlsx
+++ b/project_plan/it-402-initial_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aba-sah/Documents/sta-it402-dresscode-main/project_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0561B8-8C69-EF44-B2EC-70301F91521D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812F6CC9-68A4-4541-8012-B5FF4CBE7620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1340" windowWidth="31180" windowHeight="17800" activeTab="1" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
+    <workbookView xWindow="440" yWindow="2900" windowWidth="30200" windowHeight="16940" activeTab="1" xr2:uid="{2E9D4297-B66C-7A4B-9BAD-C6DD5F34003D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="deliverables" sheetId="3" r:id="rId3"/>
     <sheet name="task_owners" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
   <si>
     <t>Task Id</t>
   </si>
@@ -466,9 +466,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>  - analysis of grades and ggrade boundaries</t>
-  </si>
-  <si>
     <t>Week 2-1 - 3rd Jan</t>
   </si>
   <si>
@@ -527,6 +524,12 @@
   </si>
   <si>
     <t>EM/AK</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>  - analysis of grades and grade boundaries</t>
   </si>
 </sst>
 </file>
@@ -1817,18 +1820,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37260D8A-A60E-C040-84A5-7E6382A022F2}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="106" customWidth="1"/>
+    <col min="3" max="3" width="78.5" customWidth="1"/>
     <col min="4" max="4" width="1.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.1640625" customWidth="1"/>
@@ -1904,9 +1904,11 @@
         <v>87</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="19"/>
+        <v>158</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
@@ -1924,9 +1926,11 @@
         <v>126</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="20"/>
+        <v>158</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="M6" s="19"/>
@@ -1943,7 +1947,9 @@
         <v>85</v>
       </c>
       <c r="G7" s="28"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="20"/>
@@ -1962,9 +1968,11 @@
         <v>86</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="20"/>
+        <v>158</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -2001,7 +2009,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1"/>
       <c r="G11" s="21"/>
@@ -2018,7 +2026,7 @@
         <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>87</v>
@@ -2026,8 +2034,12 @@
       <c r="G12" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2035,7 +2047,7 @@
         <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>87</v>
@@ -2044,15 +2056,17 @@
         <v>109</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>87</v>
@@ -2060,8 +2074,10 @@
       <c r="G14" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
+      <c r="H14" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="20"/>
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,7 +2148,9 @@
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="J19" s="21"/>
       <c r="L19" s="20"/>
       <c r="N19" s="25"/>
@@ -2148,8 +2166,12 @@
         <v>86</v>
       </c>
       <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -2167,8 +2189,12 @@
         <v>105</v>
       </c>
       <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="19"/>
@@ -2176,16 +2202,18 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>105</v>
       </c>
       <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
@@ -2237,11 +2265,15 @@
         <v>115</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="H26" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="L26" s="22"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
@@ -2254,11 +2286,13 @@
         <v>113</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="J27" s="22"/>
       <c r="L27" s="21"/>
       <c r="M27" s="22"/>
@@ -2266,7 +2300,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>117</v>
@@ -2284,7 +2318,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>118</v>
@@ -2300,11 +2334,14 @@
       <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -2424,7 +2461,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>119</v>
@@ -2474,7 +2511,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -2494,11 +2531,11 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N43" s="27"/>
     </row>
@@ -2557,12 +2594,12 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2757,10 +2794,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
